--- a/sample_upload.xlsx
+++ b/sample_upload.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huish\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tohme\Documents\Documents\SP\Accenture\ADES\code\Hui shi excel to database\Upoad-excel-data-to-database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2025ACE-EDDE-4D3D-97E6-039C425240AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AE8444-49CF-4B67-8732-45D7107AD2B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{ED30F97F-71D3-448D-A260-C1EE2D5B2285}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ED30F97F-71D3-448D-A260-C1EE2D5B2285}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
-  <si>
-    <t>ParentAgency</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Agency</t>
   </si>
@@ -46,109 +43,55 @@
     <t>CPF000ETT20300032</t>
   </si>
   <si>
-    <t>CPF000ETT20300031</t>
-  </si>
-  <si>
-    <t>AGC000ETQ21000001</t>
-  </si>
-  <si>
-    <t>HLTHQ0ETT20300172</t>
-  </si>
-  <si>
     <t>CPF</t>
   </si>
   <si>
     <t>MOM</t>
   </si>
   <si>
-    <t xml:space="preserve">Central Provident Fund Board </t>
-  </si>
-  <si>
-    <t>AGC</t>
-  </si>
-  <si>
-    <t>Attorney-General's Chambers</t>
-  </si>
-  <si>
-    <t>MOH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ministry of Health </t>
-  </si>
-  <si>
-    <t>MOE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temasek Polytechnic </t>
-  </si>
-  <si>
-    <t>NYP000ETQ21000002</t>
-  </si>
-  <si>
-    <t>TenderNo</t>
-  </si>
-  <si>
-    <t>AccountLevel</t>
-  </si>
-  <si>
-    <t>PublishedDate</t>
-  </si>
-  <si>
-    <t>PlannedCloseDate</t>
-  </si>
-  <si>
-    <t>ExtendedCloseDate</t>
-  </si>
-  <si>
     <t>1/2/2021</t>
   </si>
   <si>
-    <t>1/2/2022</t>
-  </si>
-  <si>
-    <t>1/2/2023</t>
-  </si>
-  <si>
-    <t>1/2/2024</t>
-  </si>
-  <si>
-    <t>1/2/2025</t>
-  </si>
-  <si>
     <t>1/3/2021</t>
   </si>
   <si>
-    <t>1/3/2022</t>
-  </si>
-  <si>
-    <t>1/3/2023</t>
-  </si>
-  <si>
-    <t>1/3/2024</t>
-  </si>
-  <si>
-    <t>1/3/2025</t>
-  </si>
-  <si>
     <t>1/4/2021</t>
   </si>
   <si>
-    <t>1/4/2022</t>
-  </si>
-  <si>
-    <t>1/4/2023</t>
-  </si>
-  <si>
-    <t>1/4/2024</t>
-  </si>
-  <si>
-    <t>1/4/2025</t>
+    <t>Parent Agency (Ministry Level)</t>
+  </si>
+  <si>
+    <t>H&amp;PS Account Level</t>
+  </si>
+  <si>
+    <t>Published Date</t>
+  </si>
+  <si>
+    <t>Planned Close Date</t>
+  </si>
+  <si>
+    <t>Extended Close Date</t>
+  </si>
+  <si>
+    <t>Tender No.</t>
+  </si>
+  <si>
+    <t>Name of Opportunity</t>
+  </si>
+  <si>
+    <t>TESTING 123</t>
+  </si>
+  <si>
+    <t>Central Provident Fund Board</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-14809]d/m/yyyy;@"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -199,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -209,6 +152,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -525,160 +471,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7972C963-5E6A-416C-B367-5957DBDA18F8}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="15.36328125" customWidth="1"/>
-    <col min="3" max="3" width="16.36328125" customWidth="1"/>
-    <col min="4" max="4" width="28.6328125" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" customWidth="1"/>
-    <col min="6" max="6" width="16.26953125" customWidth="1"/>
-    <col min="7" max="7" width="20.6328125" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>31</v>
-      </c>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>32</v>
-      </c>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>33</v>
-      </c>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>35</v>
-      </c>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/sample_upload.xlsx
+++ b/sample_upload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tohme\Documents\Documents\SP\Accenture\ADES\code\Hui shi excel to database\Upoad-excel-data-to-database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AE8444-49CF-4B67-8732-45D7107AD2B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD71DBC-791A-4BA6-8CF4-B3825EEDF235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ED30F97F-71D3-448D-A260-C1EE2D5B2285}"/>
   </bookViews>
@@ -35,29 +35,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Agency</t>
   </si>
   <si>
-    <t>CPF000ETT20300032</t>
-  </si>
-  <si>
     <t>CPF</t>
   </si>
   <si>
     <t>MOM</t>
   </si>
   <si>
-    <t>1/2/2021</t>
-  </si>
-  <si>
-    <t>1/3/2021</t>
-  </si>
-  <si>
-    <t>1/4/2021</t>
-  </si>
-  <si>
     <t>Parent Agency (Ministry Level)</t>
   </si>
   <si>
@@ -79,10 +67,31 @@
     <t>Name of Opportunity</t>
   </si>
   <si>
-    <t>TESTING 123</t>
-  </si>
-  <si>
     <t>Central Provident Fund Board</t>
+  </si>
+  <si>
+    <t>CPF000EEE000EE</t>
+  </si>
+  <si>
+    <t>Energy Market Authority of Singapore</t>
+  </si>
+  <si>
+    <t>Health Promotion Board</t>
+  </si>
+  <si>
+    <t>CPF100EEE000EE</t>
+  </si>
+  <si>
+    <t>CPF200EEE000EE</t>
+  </si>
+  <si>
+    <t>TESTING 1</t>
+  </si>
+  <si>
+    <t>TESTING 2</t>
+  </si>
+  <si>
+    <t>TESTING 3</t>
   </si>
 </sst>
 </file>
@@ -90,7 +99,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-14809]d/m/yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -154,7 +163,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -474,7 +483,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -490,73 +499,99 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="F2" s="5">
+        <v>44228</v>
+      </c>
+      <c r="G2" s="5">
+        <v>44256</v>
+      </c>
+      <c r="H2" s="5">
+        <v>44287</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="2"/>
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="5">
+        <v>44228</v>
+      </c>
+      <c r="G3" s="5">
+        <v>44256</v>
+      </c>
+      <c r="H3" s="5">
+        <v>44287</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="5">
+        <v>44228</v>
+      </c>
+      <c r="G4" s="5">
+        <v>44256</v>
+      </c>
+      <c r="H4" s="5">
+        <v>44287</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
